--- a/GRUPO 4.xlsx
+++ b/GRUPO 4.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\programador.carioca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692EA975-9935-4339-A798-93744E693586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282EDCA-95CD-4BDE-BA5E-1DA5A7E6DBCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="7380" activeTab="1" xr2:uid="{002A274A-21E3-48A9-92AE-2012B82DACEC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="7380" firstSheet="1" activeTab="1" xr2:uid="{002A274A-21E3-48A9-92AE-2012B82DACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha5" sheetId="5" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$C$14:$C$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$D$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$D$14:$D$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$C$14:$C$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$D$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$D$14:$D$20</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Planilha1!$C$24:$C$31</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Planilha1!$D$23</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Planilha1!$D$24:$D$31</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Planilha1!$E$24:$E$31</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Planilha1!$F$23</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Planilha1!$F$24:$F$31</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Planilha1!$A$24:$A$31</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Planilha1!$B$23</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Planilha1!$B$24:$B$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>The Rains of Castamere</t>
   </si>
@@ -69,25 +72,10 @@
     <t>The Lion and the Rose</t>
   </si>
   <si>
-    <t>EPISÓDIO</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVALIAÇÃO </t>
   </si>
   <si>
     <t xml:space="preserve">Contagem de NOME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPISÓDIOS MAS AVALIADOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPISÓDIOS MAIS LONGO </t>
-  </si>
-  <si>
-    <t>TEMPORADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINUTOS </t>
   </si>
   <si>
     <t>The Iron Throne</t>
@@ -111,27 +99,6 @@
     <t>TITULO DO EPISÓDIO</t>
   </si>
   <si>
-    <t>EPISÓDIOS COM MAIS AUDIÊNCIA NOS EUA</t>
-  </si>
-  <si>
-    <t>ESPECTADORES</t>
-  </si>
-  <si>
-    <t>12.48</t>
-  </si>
-  <si>
-    <t>12.02</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>11.76</t>
-  </si>
-  <si>
     <t>Winterfell</t>
   </si>
   <si>
@@ -140,18 +107,80 @@
   <si>
     <t>Eastwatch</t>
   </si>
+  <si>
+    <t xml:space="preserve">DURAÇÃO EM MINUTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATORES COM MAIS PARTICIPAÇÕES </t>
+  </si>
+  <si>
+    <t>EPISÓDIOS MAIS POPULARES</t>
+  </si>
+  <si>
+    <t>Peter Dinklage</t>
+  </si>
+  <si>
+    <t>Lena Headey</t>
+  </si>
+  <si>
+    <t>Emilia Clarke</t>
+  </si>
+  <si>
+    <t>Kit Harington</t>
+  </si>
+  <si>
+    <t>Sophie Turner</t>
+  </si>
+  <si>
+    <t>Maisie Williams</t>
+  </si>
+  <si>
+    <t>Nikolaj Coster-Waldau</t>
+  </si>
+  <si>
+    <t>Iain Glen</t>
+  </si>
+  <si>
+    <t>Dragonstone</t>
+  </si>
+  <si>
+    <t>Stormborn</t>
+  </si>
+  <si>
+    <t>ESPECTADORES NOS EUA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,7 +244,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -223,31 +267,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -260,11 +301,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,10 +806,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -715,7 +822,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -723,16 +833,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="pt-BR"/>
               <a:t>EPISÓDIOS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> MAS AVALIADOS </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -752,7 +854,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -775,11 +880,189 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$2</c:f>
+              <c:f>Planilha1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>AVALIAÇÃO </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>A Knight of the Seven Kingdoms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Battle of the Bastards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beyond the Wall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Blackwater</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eastwatch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hardhome</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Bells</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Children</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Iron Throne</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Lion and the Rose</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Long Night</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Rains of Castamere</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Spoils of War</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Winds of Winter</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Winterfell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A75F-4A4F-8467-BFD8C48E565C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DURAÇÃO EM MINUTOS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -814,132 +1097,321 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$C$3:$C$9</c:f>
+              <c:f>Planilha1!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>A Knight of the Seven Kingdoms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Battle of the Bastards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beyond the Wall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Blackwater</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eastwatch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hardhome</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Bells</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Children</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Iron Throne</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Lion and the Rose</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Long Night</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>The Rains of Castamere</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Hardhome</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Battle of the Bastards</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
+                  <c:v>The Spoils of War</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>The Winds of Winter</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>The Spoils of War</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Blackwater</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Lion and the Rose</c:v>
+                <c:pt idx="16">
+                  <c:v>Winterfell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$3:$D$9</c:f>
+              <c:f>Planilha1!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.9</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F5A-43E0-8638-3EAD7EFD1B6F}"/>
+              <c16:uniqueId val="{00000001-A75F-4A4F-8467-BFD8C48E565C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESPECTADORES NOS EUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>A Knight of the Seven Kingdoms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Battle of the Bastards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beyond the Wall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Blackwater</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eastwatch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hardhome</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Bells</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Children</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Iron Throne</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Last of the Starks</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Lion and the Rose</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Long Night</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Rains of Castamere</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Spoils of War</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Winds of Winter</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Winterfell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$3:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A75F-4A4F-8467-BFD8C48E565C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -947,25 +1419,25 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1925942495"/>
-        <c:axId val="1929784511"/>
+        <c:axId val="1824021903"/>
+        <c:axId val="1825328191"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1925942495"/>
+        <c:axId val="1824021903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -981,7 +1453,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -991,7 +1466,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929784511"/>
+        <c:crossAx val="1825328191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,17 +1474,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1929784511"/>
+        <c:axId val="1825328191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1020,10 +1495,37 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1925942495"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1824021903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1035,6 +1537,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1045,7 +1578,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1072,422 +1605,139 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>EPISÓDIOS MAIS LONGO </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23437459081659739"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>EPISÓDIOS MAIS POPULARES</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>EPISÓDIOS MAIS POPULARES</a:t>
+          </a:r>
         </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.0555555555555555E-2"/>
-          <c:y val="0.22263888888888889"/>
-          <c:w val="0.77235629921259841"/>
-          <c:h val="0.56824839603382915"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MINUTOS </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$C$14:$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>The Long Night</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>The Iron Throne</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>The Last of the Starks</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Bells</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Beyond the Wall</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Winds of Winter</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Children</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$D$14:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B83F-43F4-86ED-A8B9FCA04B67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1833377215"/>
-        <c:axId val="1825321503"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1833377215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1825321503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1825321503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1833377215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{19DB4F92-D6D5-4634-A812-3D394A892C3E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.1</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ATORES COM MAIS PARTICIPAÇÕES</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ATORES COM MAIS PARTICIPAÇÕES</a:t>
+          </a:r>
         </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{4DF4739D-AE25-4054-B7DF-989D4CC44D57}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.7</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.511811024" r="0.511811024" t="0.78740157499999996" b="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,14 +1781,122 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2046,27 +2404,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2089,7 +2453,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2104,7 +2468,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2113,8 +2480,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2140,9 +2508,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2150,9 +2518,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2160,12 +2528,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2174,18 +2542,20 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2197,9 +2567,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2215,16 +2585,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2258,17 +2633,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2277,12 +2652,77 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -2290,86 +2730,23 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2378,7 +2755,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2387,7 +2767,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2395,7 +2775,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2403,12 +2783,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2423,17 +2806,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2442,9 +2825,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2453,14 +2839,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2469,7 +2854,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2478,7 +2866,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2499,7 +2887,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2508,34 +2899,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2543,14 +2940,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2558,7 +2955,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2566,24 +2963,28 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2599,42 +3000,52 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2644,34 +3055,36 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2684,19 +3097,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -2727,17 +3143,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2746,12 +3162,77 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -2759,26 +3240,68 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2786,123 +3309,21 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2911,9 +3332,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2922,7 +3346,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -2938,16 +3362,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2968,16 +3395,527 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3028,23 +3966,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481011</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134FC877-5FC0-4C91-BAAF-5951B4381F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610272AD-C526-4BD0-A2AB-4D0CCF470DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,38 +4002,158 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="14" name="Gráfico 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7866834D-E446-4F62-BD28-05A07F6C83EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12492038" y="4195762"/>
+              <a:ext cx="4833938" cy="1709738"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2095501</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504CA383-EBDD-443E-A3F3-0A4A92A1D531}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Gráfico 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD42BC69-43FD-46A5-A74E-BA178AF3A33C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7100888" y="4195762"/>
+              <a:ext cx="5272088" cy="1719263"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3104,7 +4162,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Programador Carioca" refreshedDate="44966.445756597219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{825FD875-1A43-46B3-ADDB-6AA2FBDDE0CB}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:D9" sheet="Planilha1"/>
+    <worksheetSource ref="A2:B8" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="TEMPORADA  " numFmtId="0">
@@ -3186,7 +4244,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCECA22D-2A00-48AC-AB3A-553D5F834CE3}" name="Tabela dinâmica12" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCECA22D-2A00-48AC-AB3A-553D5F834CE3}" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3597,18 +4655,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3616,7 +4674,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3624,7 +4682,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3636,331 +4694,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639BF69-F527-489A-A979-1C5C0B0B59EE}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10.26</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="C4" s="28">
+        <v>60</v>
+      </c>
+      <c r="D4" s="17">
+        <v>7.66</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>70</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10.24</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C6" s="28">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="17">
+        <v>10.17</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>61</v>
+      </c>
+      <c r="D8" s="30">
+        <v>7.01</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>78</v>
+      </c>
+      <c r="D9" s="30">
+        <v>12.48</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C10" s="3">
+        <v>65</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7.09</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80</v>
+      </c>
+      <c r="D11" s="30">
+        <v>13.61</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>78</v>
+      </c>
+      <c r="D12" s="30">
+        <v>7.29</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="C13" s="28">
+        <v>78</v>
+      </c>
+      <c r="D13" s="30">
+        <v>11.8</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C14" s="3">
+        <v>52</v>
+      </c>
+      <c r="D14" s="30">
+        <v>6.31</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30">
+        <v>12.02</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>51</v>
+      </c>
+      <c r="D16" s="30">
+        <v>5.22</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C17" s="3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30">
+        <v>10.17</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="18">
+        <v>9.9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>68</v>
+      </c>
+      <c r="D18" s="30">
+        <v>8.89</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="18">
+        <v>7.6</v>
+      </c>
+      <c r="C19" s="28">
+        <v>54</v>
+      </c>
+      <c r="D19" s="30">
+        <v>11.79</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="7"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="14"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="14"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="14"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="31">
+        <v>67</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="31">
+        <v>62</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="31">
+        <v>62</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>81.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31">
+        <v>59</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>78.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="31">
+        <v>59</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>72.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="31">
+        <v>55</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <v>72.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="32">
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>71.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="32">
+        <v>48</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2">
+        <v>65.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>82</v>
-      </c>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
-        <v>80</v>
-      </c>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>78</v>
-      </c>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>78</v>
-      </c>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>70</v>
-      </c>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>68</v>
-      </c>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2">
-        <v>65</v>
-      </c>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2">
-        <v>13.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10.17</v>
-      </c>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A3:E19">
+    <sortCondition ref="A3"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
